--- a/data/Andante/utility_structure.xlsx
+++ b/data/Andante/utility_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="226">
   <si>
     <t>Class Name</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>9</t>
@@ -4983,7 +4980,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5027,7 +5024,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>221</v>
@@ -5038,18 +5035,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>218</v>
@@ -5060,21 +5057,21 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9">
@@ -5082,7 +5079,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>218</v>
@@ -5093,7 +5090,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>218</v>
@@ -5101,21 +5098,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>218</v>
@@ -5123,10 +5120,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>218</v>
@@ -5134,13 +5131,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15">
@@ -5148,7 +5145,7 @@
         <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>218</v>
@@ -5156,10 +5153,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>218</v>
@@ -5167,21 +5164,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>221</v>
@@ -5189,43 +5186,43 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>218</v>
@@ -5233,32 +5230,32 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>221</v>
@@ -5266,21 +5263,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>218</v>
@@ -5288,7 +5285,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>33</v>
@@ -5299,65 +5296,65 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>218</v>
@@ -5365,10 +5362,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>218</v>
@@ -5376,10 +5373,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>218</v>
@@ -5390,62 +5387,62 @@
         <v>94</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>218</v>
@@ -5453,10 +5450,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>218</v>
@@ -5464,10 +5461,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>218</v>
@@ -5475,10 +5472,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>218</v>
@@ -5486,21 +5483,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>221</v>
@@ -5508,122 +5505,23 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="C58" t="s" s="0">
         <v>221</v>
       </c>
     </row>

--- a/data/Andante/utility_structure.xlsx
+++ b/data/Andante/utility_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="226">
   <si>
     <t>Class Name</t>
   </si>
@@ -411,6 +411,9 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>ACTIVITY_ORDER_GROUP</t>
+  </si>
+  <si>
     <t>ACTIVITY_PRODUCT_GROUP</t>
   </si>
   <si>
@@ -423,132 +426,129 @@
     <t>name</t>
   </si>
   <si>
-    <t>ACTIVITY_ORDER_GROUP</t>
-  </si>
-  <si>
     <t>eurekaContainer</t>
   </si>
   <si>
     <t>org.testcontainers.containers.GenericContainer</t>
   </si>
   <si>
+    <t>EUREKA_PORT</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+  </si>
+  <si>
     <t>postgresqlContainer</t>
   </si>
   <si>
     <t>org.testcontainers.containers.PostgreSQLContainer</t>
   </si>
   <si>
-    <t>EUREKA_PORT</t>
-  </si>
-  <si>
-    <t>java.lang.Integer</t>
-  </si>
-  <si>
     <t>kafkaContainer</t>
   </si>
   <si>
     <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>NOT_FOUND</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>CLIENT_ERROR</t>
   </si>
   <si>
+    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>topicName</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>topicName</t>
-  </si>
-  <si>
-    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
+    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
   </si>
   <si>
     <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_INTERNAL_TOPIC</t>
   </si>
   <si>
     <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>LESS_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>EQUAL</t>
   </si>
   <si>
     <t>IN</t>
   </si>
   <si>
+    <t>NOT_EQUAL</t>
+  </si>
+  <si>
+    <t>GREATER_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>GREATER_THAN</t>
+  </si>
+  <si>
     <t>LESS_THAN</t>
   </si>
   <si>
     <t>NOT_IN</t>
   </si>
   <si>
-    <t>EQUAL</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>GREATER_THAN</t>
-  </si>
-  <si>
-    <t>NOT_EQUAL</t>
-  </si>
-  <si>
-    <t>GREATER_THAN_OR_EQUAL</t>
-  </si>
-  <si>
-    <t>LESS_THAN_OR_EQUAL</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationStatus</t>
   </si>
   <si>
@@ -567,52 +567,52 @@
     <t>DELETE</t>
   </si>
   <si>
+    <t>RSQL_WILDCARD</t>
+  </si>
+  <si>
+    <t>DATABASE_WILDCARD</t>
+  </si>
+  <si>
+    <t>RSQL_MAPPING_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
     <t>arguments</t>
   </si>
   <si>
-    <t>RSQL_MAPPING_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>RSQL_WILDCARD</t>
-  </si>
-  <si>
-    <t>DATABASE_WILDCARD</t>
-  </si>
-  <si>
     <t>specificationBuilder</t>
   </si>
   <si>
+    <t>EXCLAMATION_MARK</t>
+  </si>
+  <si>
+    <t>LEFT_BRACKET</t>
+  </si>
+  <si>
     <t>APOSTROPHE</t>
   </si>
   <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>TILDE</t>
+  </si>
+  <si>
+    <t>reservedCharacter</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
     <t>SEMICOLON</t>
   </si>
   <si>
-    <t>LEFT_BRACKET</t>
-  </si>
-  <si>
-    <t>QUOTE</t>
-  </si>
-  <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>TILDE</t>
+    <t>RIGHT_BRACKET</t>
   </si>
   <si>
     <t>EQUALS</t>
-  </si>
-  <si>
-    <t>EXCLAMATION_MARK</t>
-  </si>
-  <si>
-    <t>RIGHT_BRACKET</t>
-  </si>
-  <si>
-    <t>reservedCharacter</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -4980,7 +4980,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5046,21 +5046,21 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
@@ -5068,7 +5068,7 @@
         <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>218</v>
@@ -5079,7 +5079,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>218</v>
@@ -5087,24 +5087,24 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>218</v>
@@ -5123,10 +5123,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14">
@@ -5134,18 +5134,18 @@
         <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>218</v>
@@ -5156,7 +5156,7 @@
         <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>218</v>
@@ -5167,10 +5167,10 @@
         <v>74</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -5178,7 +5178,7 @@
         <v>74</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>221</v>
@@ -5189,10 +5189,10 @@
         <v>74</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
@@ -5200,7 +5200,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>218</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>218</v>
@@ -5222,10 +5222,10 @@
         <v>81</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
@@ -5233,10 +5233,10 @@
         <v>81</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
@@ -5244,21 +5244,21 @@
         <v>81</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -5266,7 +5266,7 @@
         <v>91</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>218</v>
@@ -5277,7 +5277,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>218</v>
@@ -5285,13 +5285,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
@@ -5299,10 +5299,10 @@
         <v>94</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
@@ -5310,7 +5310,7 @@
         <v>94</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>223</v>
@@ -5321,10 +5321,10 @@
         <v>94</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
@@ -5332,10 +5332,10 @@
         <v>94</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
@@ -5343,10 +5343,10 @@
         <v>94</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -5354,7 +5354,7 @@
         <v>94</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>218</v>
@@ -5365,7 +5365,7 @@
         <v>94</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>218</v>
@@ -5376,7 +5376,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>218</v>
@@ -5384,13 +5384,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
@@ -5398,7 +5398,7 @@
         <v>107</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>221</v>
@@ -5409,7 +5409,7 @@
         <v>107</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>221</v>
@@ -5420,7 +5420,7 @@
         <v>107</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>221</v>
@@ -5431,10 +5431,10 @@
         <v>107</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42">
@@ -5442,7 +5442,7 @@
         <v>107</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>218</v>
@@ -5453,7 +5453,7 @@
         <v>107</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>218</v>
@@ -5461,10 +5461,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>218</v>
@@ -5475,7 +5475,7 @@
         <v>115</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>218</v>
@@ -5486,10 +5486,10 @@
         <v>115</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47">
@@ -5497,31 +5497,20 @@
         <v>115</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="C49" t="s" s="0">
         <v>221</v>
       </c>
     </row>
@@ -5615,10 +5604,10 @@
         <v>131</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5632,7 +5621,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -5643,10 +5632,10 @@
         <v>133</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -5710,13 +5699,13 @@
         <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -5724,7 +5713,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
@@ -5738,13 +5727,13 @@
         <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -5783,10 +5772,10 @@
         <v>146</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -5839,10 +5828,10 @@
         <v>150</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -5920,13 +5909,13 @@
         <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -5934,7 +5923,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
@@ -5948,7 +5937,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
@@ -5962,13 +5951,13 @@
         <v>50</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -6038,7 +6027,7 @@
         <v>58</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
@@ -6046,13 +6035,13 @@
         <v>54</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>58</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>165</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -6060,13 +6049,13 @@
         <v>54</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>58</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37">
@@ -6091,10 +6080,10 @@
         <v>167</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -6133,10 +6122,10 @@
         <v>170</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
@@ -6144,13 +6133,13 @@
         <v>74</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
@@ -6158,7 +6147,7 @@
         <v>74</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -6172,7 +6161,7 @@
         <v>74</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
@@ -6186,7 +6175,7 @@
         <v>74</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -6200,13 +6189,13 @@
         <v>74</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -6242,13 +6231,13 @@
         <v>91</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -6256,7 +6245,7 @@
         <v>91</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
@@ -6270,7 +6259,7 @@
         <v>91</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -6284,13 +6273,13 @@
         <v>91</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
@@ -6304,7 +6293,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -6312,13 +6301,13 @@
         <v>94</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -6326,7 +6315,7 @@
         <v>94</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>13</v>
@@ -6340,7 +6329,7 @@
         <v>94</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>13</v>
@@ -6354,7 +6343,7 @@
         <v>94</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>13</v>
@@ -6368,13 +6357,13 @@
         <v>94</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
@@ -6424,13 +6413,13 @@
         <v>115</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
@@ -6438,7 +6427,7 @@
         <v>115</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -6452,7 +6441,7 @@
         <v>115</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -6466,7 +6455,7 @@
         <v>115</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -6480,7 +6469,7 @@
         <v>115</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -6494,13 +6483,13 @@
         <v>115</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -6508,7 +6497,7 @@
         <v>115</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -6522,7 +6511,7 @@
         <v>115</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -6536,7 +6525,7 @@
         <v>115</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -6567,10 +6556,10 @@
         <v>196</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
